--- a/jpcore-r4/feature/swg2-imagingstudy-radiology/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-imagingstudy-radiology/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG. DICOM® is the registered trademark of the National Electrical Manufacturers Association for its Standards publications relating to digital communications of medical information.</t>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
